--- a/draft/figure/Graph/not_realtask/xls/Memcpy_normal_HtoD.xlsx
+++ b/draft/figure/Graph/not_realtask/xls/Memcpy_normal_HtoD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14840" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14840" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DMA" sheetId="9" r:id="rId1"/>
@@ -17,6 +17,8 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -381,6 +383,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1475,11 +1478,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2025388824"/>
-        <c:axId val="-2131888488"/>
+        <c:axId val="2115242472"/>
+        <c:axId val="2116591432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2025388824"/>
+        <c:axId val="2115242472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1502,6 +1505,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1518,7 +1522,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131888488"/>
+        <c:crossAx val="2116591432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1527,7 +1531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131888488"/>
+        <c:axId val="2116591432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -1552,13 +1556,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2025388824"/>
+        <c:crossAx val="2115242472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2620,11 +2625,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141362712"/>
-        <c:axId val="-2110396216"/>
+        <c:axId val="2115303160"/>
+        <c:axId val="2107292744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141362712"/>
+        <c:axId val="2115303160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2664,7 +2669,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110396216"/>
+        <c:crossAx val="2107292744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2673,7 +2678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110396216"/>
+        <c:axId val="2107292744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -2705,7 +2710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141362712"/>
+        <c:crossAx val="2115303160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2758,6 +2763,1399 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.139043627321704"/>
+          <c:y val="0.0875250887756677"/>
+          <c:w val="0.796529310929435"/>
+          <c:h val="0.783769183263857"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Sheet2!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nvidia's Firmware</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>[2]Sheet2!$B$21:$E$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.059</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.045</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.044</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>[2]Sheet2!$B$22:$E$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.027</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.027</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.028</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.028</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Sheet2!$B$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>_x0004_madd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>_x0004_mmul</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>_x0004_loop</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>_x0005_fmadd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Sheet2!$B$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Sheet2!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Our Firmware</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF420E"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>[2]Sheet2!$B$23:$E$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.045</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.059</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.034</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.064</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>[2]Sheet2!$B$24:$E$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.028</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.032</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.028</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Sheet2!$B$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>_x0004_madd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>_x0004_mmul</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>_x0004_loop</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>_x0005_fmadd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Sheet2!$B$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="2115392504"/>
+        <c:axId val="2115377240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2115392504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2115377240"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2115377240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution time (mc)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0147515545886837"/>
+              <c:y val="0.241198512246271"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2115392504"/>
+        <c:crossesAt val="1.0"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.158792525336247"/>
+          <c:y val="0.00188883742473367"/>
+          <c:w val="0.605539784500622"/>
+          <c:h val="0.0757228655241624"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="ＭＳ Ｐゴシック"/>
+          <a:ea typeface="ＭＳ Ｐゴシック"/>
+          <a:cs typeface="ＭＳ Ｐゴシック"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.511805555555556" footer="0.511805555555556"/>
+    <c:pageSetup firstPageNumber="0"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.135462869536517"/>
+          <c:y val="0.103310946425814"/>
+          <c:w val="0.797965014852185"/>
+          <c:h val="0.748089084452679"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Sheet2!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nvidia's Firmware</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>[2]Sheet2!$B$30:$E$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.207</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.171</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.217</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.242</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>[2]Sheet2!$B$31:$E$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.053</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.039</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.034</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.051</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Sheet2!$B$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>_x0004_madd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>_x0004_mmul</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>_x0004_loop</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>_x0005_fmadd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Sheet2!$B$28:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.846</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Sheet2!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Our Firmware</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF420E"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>[2]Sheet2!$B$32:$E$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.164</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.053</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.034</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.055</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>[2]Sheet2!$B$33:$E$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.049</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.099</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.045</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Sheet2!$B$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>_x0004_madd</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>_x0004_mmul</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>_x0004_loop</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>_x0005_fmadd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Sheet2!$B$29:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="2117855272"/>
+        <c:axId val="2117832120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2117855272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2117832120"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2117832120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution time (ms) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0126719546086151"/>
+              <c:y val="0.246223622047244"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2117855272"/>
+        <c:crossesAt val="1.0"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="0.02"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.158725163845537"/>
+          <c:y val="0.000401574803149606"/>
+          <c:w val="0.540699325757933"/>
+          <c:h val="0.0986561679790026"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="ＭＳ Ｐゴシック"/>
+          <a:ea typeface="ＭＳ Ｐゴシック"/>
+          <a:cs typeface="ＭＳ Ｐゴシック"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.511805555555556" footer="0.511805555555556"/>
+    <c:pageSetup firstPageNumber="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.106917565399112"/>
+          <c:y val="0.0557551475024364"/>
+          <c:w val="0.85385509571967"/>
+          <c:h val="0.775684760917655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DMA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMA!$H$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DMA!$H$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.49444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63067</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60154</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6966</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.14446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.81203</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.076569999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.64558</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.70112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>IORW</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMA!$H$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IORW!$H$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.00524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00543</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00573</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02076</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.03606</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.06692</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12551</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23212</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45491</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92941</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.875209999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.737190000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.492660000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.88072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2119973512"/>
+        <c:axId val="2113860632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2119973512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Data Size </a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="2400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-1080000"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2113860632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="0"/>
+        <c:tickLblSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2113860632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Data Transfer Time ( ms )</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="2400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2119973512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.112490392947293"/>
+          <c:y val="0.132502030996125"/>
+          <c:w val="0.154117093018875"/>
+          <c:h val="0.129906417947757"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -2788,6 +4186,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4752,11 +6151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2143700360"/>
-        <c:axId val="-2025783080"/>
+        <c:axId val="2110887208"/>
+        <c:axId val="2116570328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2143700360"/>
+        <c:axId val="2110887208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4779,6 +6178,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4795,7 +6195,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025783080"/>
+        <c:crossAx val="2116570328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4804,7 +6204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2025783080"/>
+        <c:axId val="2116570328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -4829,13 +6229,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143700360"/>
+        <c:crossAx val="2110887208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4911,6 +6312,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5933,11 +7335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141304872"/>
-        <c:axId val="-2025585736"/>
+        <c:axId val="2127951352"/>
+        <c:axId val="2127943208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141304872"/>
+        <c:axId val="2127951352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5960,6 +7362,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5976,7 +7379,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025585736"/>
+        <c:crossAx val="2127943208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5985,7 +7388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2025585736"/>
+        <c:axId val="2127943208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -6010,13 +7413,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141304872"/>
+        <c:crossAx val="2127951352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7985,11 +9389,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2110110264"/>
-        <c:axId val="-2025205912"/>
+        <c:axId val="2111190392"/>
+        <c:axId val="2116062024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2110110264"/>
+        <c:axId val="2111190392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8029,7 +9433,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025205912"/>
+        <c:crossAx val="2116062024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -8038,7 +9442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2025205912"/>
+        <c:axId val="2116062024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -8070,7 +9474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110110264"/>
+        <c:crossAx val="2111190392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8146,6 +9550,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8655,11 +10060,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2110620008"/>
-        <c:axId val="-2110014040"/>
+        <c:axId val="2116154344"/>
+        <c:axId val="2116600456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2110620008"/>
+        <c:axId val="2116154344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8682,6 +10087,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -8698,7 +10104,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110014040"/>
+        <c:crossAx val="2116600456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -8707,7 +10113,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110014040"/>
+        <c:axId val="2116600456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -8732,13 +10138,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110620008"/>
+        <c:crossAx val="2116154344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9637,11 +11044,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2025705272"/>
-        <c:axId val="-2024830152"/>
+        <c:axId val="2115372376"/>
+        <c:axId val="2115327640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2025705272"/>
+        <c:axId val="2115372376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9681,7 +11088,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2024830152"/>
+        <c:crossAx val="2115327640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9690,7 +11097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2024830152"/>
+        <c:axId val="2115327640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15.0"/>
@@ -9723,7 +11130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2025705272"/>
+        <c:crossAx val="2115372376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10133,11 +11540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2132201400"/>
-        <c:axId val="-2025432824"/>
+        <c:axId val="2115617432"/>
+        <c:axId val="2113808184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2132201400"/>
+        <c:axId val="2115617432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10166,7 +11573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2025432824"/>
+        <c:crossAx val="2113808184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -10174,7 +11581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2025432824"/>
+        <c:axId val="2113808184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10204,7 +11611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132201400"/>
+        <c:crossAx val="2115617432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10909,11 +12316,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131947400"/>
-        <c:axId val="-2025187208"/>
+        <c:axId val="2112808248"/>
+        <c:axId val="2112089912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131947400"/>
+        <c:axId val="2112808248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10936,6 +12343,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -10952,7 +12360,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025187208"/>
+        <c:crossAx val="2112089912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -10961,7 +12369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2025187208"/>
+        <c:axId val="2112089912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15.0"/>
@@ -10987,13 +12395,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131947400"/>
+        <c:crossAx val="2112808248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12062,11 +13471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2112820264"/>
-        <c:axId val="-2141739896"/>
+        <c:axId val="2107320376"/>
+        <c:axId val="2112561656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2112820264"/>
+        <c:axId val="2107320376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12106,7 +13515,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141739896"/>
+        <c:crossAx val="2112561656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -12115,7 +13524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141739896"/>
+        <c:axId val="2112561656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -12147,7 +13556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112820264"/>
+        <c:crossAx val="2107320376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12435,9 +13844,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:colOff>711200</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12461,13 +13870,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:colOff>965200</xdr:colOff>
       <xdr:row>149</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -12522,7 +13931,196 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="グラフ 16"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.12089</cdr:x>
+      <cdr:y>0.85045</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.12113</cdr:x>
+      <cdr:y>0.85069</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6145" name="Text Box 1"/>
+        <cdr:cNvSpPr txBox="1">
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="838257" y="3175400"/>
+          <a:ext cx="1708" cy="908"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="E6E6E6"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.12089</cdr:x>
+      <cdr:y>0.85045</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.12113</cdr:x>
+      <cdr:y>0.85069</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Text Box 1"/>
+        <cdr:cNvSpPr txBox="1">
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeArrowheads="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr bwMode="auto">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="838257" y="3175400"/>
+          <a:ext cx="1708" cy="908"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="E6E6E6"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12773,6 +14371,740 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>madd</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>mmul</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>loop</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>fmadd</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Nvidia's Firmware</v>
+          </cell>
+          <cell r="B19">
+            <v>0.13</v>
+          </cell>
+          <cell r="C19">
+            <v>0.129</v>
+          </cell>
+          <cell r="D19">
+            <v>0.115</v>
+          </cell>
+          <cell r="E19">
+            <v>0.129</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Our Firmware</v>
+          </cell>
+          <cell r="B20">
+            <v>0.13300000000000001</v>
+          </cell>
+          <cell r="C20">
+            <v>0.13</v>
+          </cell>
+          <cell r="D20">
+            <v>0.113</v>
+          </cell>
+          <cell r="E20">
+            <v>0.13</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>5.9000000000000004E-2</v>
+          </cell>
+          <cell r="C21">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+          <cell r="D21">
+            <v>4.3999999999999997E-2</v>
+          </cell>
+          <cell r="E21">
+            <v>0.04</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>2.7E-2</v>
+          </cell>
+          <cell r="C22">
+            <v>2.7E-2</v>
+          </cell>
+          <cell r="D22">
+            <v>2.8000000000000001E-2</v>
+          </cell>
+          <cell r="E22">
+            <v>2.8000000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+          <cell r="C23">
+            <v>5.9000000000000004E-2</v>
+          </cell>
+          <cell r="D23">
+            <v>3.4000000000000002E-2</v>
+          </cell>
+          <cell r="E23">
+            <v>6.4000000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>0.03</v>
+          </cell>
+          <cell r="C24">
+            <v>2.8000000000000001E-2</v>
+          </cell>
+          <cell r="D24">
+            <v>3.2000000000000001E-2</v>
+          </cell>
+          <cell r="E24">
+            <v>2.8000000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>madd</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>mmul</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>loop</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>fmadd</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Nvidia's Firmware</v>
+          </cell>
+          <cell r="B28">
+            <v>0.80500000000000005</v>
+          </cell>
+          <cell r="C28">
+            <v>0.79800000000000004</v>
+          </cell>
+          <cell r="D28">
+            <v>0.84599999999999997</v>
+          </cell>
+          <cell r="E28">
+            <v>0.79900000000000004</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Our Firmware</v>
+          </cell>
+          <cell r="B29">
+            <v>0.79800000000000004</v>
+          </cell>
+          <cell r="C29">
+            <v>0.79300000000000004</v>
+          </cell>
+          <cell r="D29">
+            <v>0.83200000000000007</v>
+          </cell>
+          <cell r="E29">
+            <v>0.79800000000000004</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>0.20700000000000002</v>
+          </cell>
+          <cell r="C30">
+            <v>0.17100000000000001</v>
+          </cell>
+          <cell r="D30">
+            <v>0.217</v>
+          </cell>
+          <cell r="E30">
+            <v>0.24199999999999999</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>5.2999999999999999E-2</v>
+          </cell>
+          <cell r="C31">
+            <v>3.9E-2</v>
+          </cell>
+          <cell r="D31">
+            <v>3.4000000000000002E-2</v>
+          </cell>
+          <cell r="E31">
+            <v>5.1000000000000004E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>0.16400000000000001</v>
+          </cell>
+          <cell r="C32">
+            <v>5.2999999999999999E-2</v>
+          </cell>
+          <cell r="D32">
+            <v>3.4000000000000002E-2</v>
+          </cell>
+          <cell r="E32">
+            <v>5.5E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>4.9000000000000002E-2</v>
+          </cell>
+          <cell r="C33">
+            <v>0.06</v>
+          </cell>
+          <cell r="D33">
+            <v>9.9000000000000005E-2</v>
+          </cell>
+          <cell r="E33">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DMA"/>
+      <sheetName val="IORW"/>
+      <sheetName val="PMEM"/>
+      <sheetName val="HUB"/>
+      <sheetName val="GPC"/>
+      <sheetName val="GPC4"/>
+      <sheetName val="グラフ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>16 B</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>32 B</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>64 B</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>128 B</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>256 B</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>512 B</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>1 KB</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>2 KB</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>4 KB</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>8 KB</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>16 KB</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>32 KB</v>
+          </cell>
+          <cell r="N5" t="str">
+            <v>64 KB</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v>128 KB</v>
+          </cell>
+          <cell r="P5" t="str">
+            <v>256 KB</v>
+          </cell>
+          <cell r="Q5" t="str">
+            <v>512 KB</v>
+          </cell>
+          <cell r="R5" t="str">
+            <v>1 MB</v>
+          </cell>
+          <cell r="S5" t="str">
+            <v>2 MB</v>
+          </cell>
+          <cell r="T5" t="str">
+            <v>4 MB</v>
+          </cell>
+          <cell r="U5" t="str">
+            <v>8 MB</v>
+          </cell>
+          <cell r="V5" t="str">
+            <v>16 MB</v>
+          </cell>
+          <cell r="W5" t="str">
+            <v>32 MB</v>
+          </cell>
+          <cell r="X5" t="str">
+            <v>64 MB</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>2.5589999999999984E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>2.5439999999999997E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>2.5779999999999997E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>2.620999999999999E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>2.5089999999999977E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>2.6770000000000002E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>2.7599999999999989E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>2.7599999999999993E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>2.7889999999999988E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>2.8149999999999994E-2</v>
+          </cell>
+          <cell r="L9">
+            <v>2.8479999999999978E-2</v>
+          </cell>
+          <cell r="M9">
+            <v>3.0269999999999957E-2</v>
+          </cell>
+          <cell r="N9">
+            <v>4.2169999999999999E-2</v>
+          </cell>
+          <cell r="O9">
+            <v>6.195999999999998E-2</v>
+          </cell>
+          <cell r="P9">
+            <v>9.1000000000000081E-2</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.13129999999999989</v>
+          </cell>
+          <cell r="R9">
+            <v>0.21909000000000003</v>
+          </cell>
+          <cell r="S9">
+            <v>0.38958999999999988</v>
+          </cell>
+          <cell r="T9">
+            <v>0.75796999999999992</v>
+          </cell>
+          <cell r="U9">
+            <v>1.6364099999999993</v>
+          </cell>
+          <cell r="V9">
+            <v>3.5358700000000005</v>
+          </cell>
+          <cell r="W9">
+            <v>7.2882300000000013</v>
+          </cell>
+          <cell r="X9">
+            <v>15.191560010000005</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="9">
+          <cell r="B9">
+            <v>3.4200000000000025E-3</v>
+          </cell>
+          <cell r="C9">
+            <v>4.7700000000000034E-3</v>
+          </cell>
+          <cell r="D9">
+            <v>6.7000000000000046E-3</v>
+          </cell>
+          <cell r="E9">
+            <v>1.1699999999999999E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>2.2099999999999988E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>4.169000000000004E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>8.3650000000000044E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>0.1675799999999999</v>
+          </cell>
+          <cell r="J9">
+            <v>0.32717999999999997</v>
+          </cell>
+          <cell r="K9">
+            <v>0.65236000000000005</v>
+          </cell>
+          <cell r="L9">
+            <v>1.2920099999999997</v>
+          </cell>
+          <cell r="M9">
+            <v>2.5952300000000004</v>
+          </cell>
+          <cell r="N9">
+            <v>5.1169300000000009</v>
+          </cell>
+          <cell r="O9">
+            <v>10.280279999999999</v>
+          </cell>
+          <cell r="P9">
+            <v>20.579969979999991</v>
+          </cell>
+          <cell r="Q9">
+            <v>41.247140100000017</v>
+          </cell>
+          <cell r="R9">
+            <v>85.754909979999994</v>
+          </cell>
+          <cell r="S9">
+            <v>170.4822101200001</v>
+          </cell>
+          <cell r="T9">
+            <v>339.56122037</v>
+          </cell>
+          <cell r="U9">
+            <v>676.36545348999982</v>
+          </cell>
+          <cell r="V9">
+            <v>1365.4369274700009</v>
+          </cell>
+          <cell r="W9">
+            <v>2777.4758667199999</v>
+          </cell>
+          <cell r="X9">
+            <v>5667.2280371100014</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="9">
+          <cell r="B9">
+            <v>4.1900000000000028E-3</v>
+          </cell>
+          <cell r="C9">
+            <v>5.120000000000003E-3</v>
+          </cell>
+          <cell r="D9">
+            <v>7.050000000000005E-3</v>
+          </cell>
+          <cell r="E9">
+            <v>9.7600000000000065E-3</v>
+          </cell>
+          <cell r="F9">
+            <v>2.3069999999999966E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>3.9529999999999996E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>7.6910000000000048E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>0.14652000000000009</v>
+          </cell>
+          <cell r="J9">
+            <v>0.27790000000000015</v>
+          </cell>
+          <cell r="K9">
+            <v>0.52396000000000043</v>
+          </cell>
+          <cell r="L9">
+            <v>1.0429000000000002</v>
+          </cell>
+          <cell r="M9">
+            <v>2.2446100000000002</v>
+          </cell>
+          <cell r="N9">
+            <v>2.5776300000000005</v>
+          </cell>
+          <cell r="O9">
+            <v>5.0137999999999998</v>
+          </cell>
+          <cell r="P9">
+            <v>10.00831</v>
+          </cell>
+          <cell r="Q9">
+            <v>19.973620139999994</v>
+          </cell>
+          <cell r="R9">
+            <v>44.380869939999982</v>
+          </cell>
+          <cell r="S9">
+            <v>95.443219920000004</v>
+          </cell>
+          <cell r="T9" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="9">
+          <cell r="B9">
+            <v>1.3250000000000007E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>1.3350000000000006E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>1.3350000000000004E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>1.2150000000000005E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>1.2360000000000005E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>1.3140000000000002E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>1.6090000000000007E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>2.0069999999999991E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>3.1190000000000023E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>5.0240000000000021E-2</v>
+          </cell>
+          <cell r="L9">
+            <v>9.2539999999999942E-2</v>
+          </cell>
+          <cell r="M9">
+            <v>0.17341000000000001</v>
+          </cell>
+          <cell r="N9">
+            <v>0.33746000000000004</v>
+          </cell>
+          <cell r="O9">
+            <v>0.66516999999999982</v>
+          </cell>
+          <cell r="P9">
+            <v>1.3156399999999993</v>
+          </cell>
+          <cell r="Q9">
+            <v>2.630510000000001</v>
+          </cell>
+          <cell r="R9">
+            <v>5.8773</v>
+          </cell>
+          <cell r="S9">
+            <v>11.750000000000002</v>
+          </cell>
+          <cell r="T9">
+            <v>23.463130089999996</v>
+          </cell>
+          <cell r="U9">
+            <v>46.905529619999989</v>
+          </cell>
+          <cell r="V9">
+            <v>93.849470269999941</v>
+          </cell>
+          <cell r="W9">
+            <v>187.62724056000002</v>
+          </cell>
+          <cell r="X9">
+            <v>375.18255828000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="9">
+          <cell r="B9">
+            <v>1.5949999999999995E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>1.5949999999999999E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>1.6080000000000004E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>1.6059999999999994E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>1.5700000000000002E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>1.7950000000000004E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>2.1889999999999982E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>2.791999999999999E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>4.2380000000000043E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>6.9860000000000047E-2</v>
+          </cell>
+          <cell r="L9">
+            <v>0.12562999999999999</v>
+          </cell>
+          <cell r="M9">
+            <v>0.23481000000000007</v>
+          </cell>
+          <cell r="N9">
+            <v>0.45615000000000017</v>
+          </cell>
+          <cell r="O9">
+            <v>0.90691999999999939</v>
+          </cell>
+          <cell r="P9">
+            <v>1.9042999999999992</v>
+          </cell>
+          <cell r="Q9">
+            <v>3.8625800000000003</v>
+          </cell>
+          <cell r="R9">
+            <v>7.7041900000000032</v>
+          </cell>
+          <cell r="S9">
+            <v>15.40715</v>
+          </cell>
+          <cell r="T9">
+            <v>30.769479790000023</v>
+          </cell>
+          <cell r="U9">
+            <v>61.497980270000028</v>
+          </cell>
+          <cell r="V9">
+            <v>122.93805031999996</v>
+          </cell>
+          <cell r="W9">
+            <v>245.80305034999995</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="9">
+          <cell r="B9">
+            <v>2.0779999999999989E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>2.0369999999999996E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>1.990999999999999E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>1.9979999999999998E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>1.9790000000000002E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>2.0039999999999992E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>2.0569999999999991E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>2.2609999999999984E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>2.8690000000000011E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>3.6999999999999984E-2</v>
+          </cell>
+          <cell r="L9">
+            <v>5.4009999999999996E-2</v>
+          </cell>
+          <cell r="M9">
+            <v>9.0509999999999979E-2</v>
+          </cell>
+          <cell r="N9">
+            <v>0.16283000000000006</v>
+          </cell>
+          <cell r="O9">
+            <v>0.30843999999999983</v>
+          </cell>
+          <cell r="P9">
+            <v>0.58264999999999989</v>
+          </cell>
+          <cell r="Q9">
+            <v>1.1656700000000002</v>
+          </cell>
+          <cell r="R9">
+            <v>2.303879999999999</v>
+          </cell>
+          <cell r="S9">
+            <v>4.5803000000000011</v>
+          </cell>
+          <cell r="T9">
+            <v>9.1295700000000028</v>
+          </cell>
+          <cell r="U9">
+            <v>18.454040150000004</v>
+          </cell>
+          <cell r="V9">
+            <v>37.025059740000017</v>
+          </cell>
+          <cell r="W9">
+            <v>74.142030670000025</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -30346,7 +32678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -62422,8 +64754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E31:AC82"/>
   <sheetViews>
-    <sheetView topLeftCell="B127" workbookViewId="0">
-      <selection activeCell="M129" sqref="M129"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
